--- a/data/trans_camb/P23_7_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_7_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,11</t>
+          <t>-0,88; 3,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,98</t>
+          <t>-0,95; 3,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,78</t>
+          <t>-0,05; 5,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 0,27</t>
+          <t>1,07; 8,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,46</t>
+          <t>-3,63; 3,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 7,18</t>
+          <t>-5,01; -0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,17</t>
+          <t>-2,07; 3,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,09</t>
+          <t>-1,15; 5,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,77</t>
+          <t>-2,5; 4,16</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 2,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 1,08</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 2,71</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 4,66</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 5,2</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 2,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>196,87%</t>
+          <t>67,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>-33,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-9,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-9,9%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33,52%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-3,89%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 146,65</t>
+          <t>-17,84; 127,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 135,35</t>
+          <t>-22,01; 127,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,5; 376,9</t>
+          <t>-3,92; 188,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,06; 6,28</t>
+          <t>8,79; 159,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 57,57</t>
+          <t>-28,15; 38,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,69; 119,89</t>
+          <t>-55,61; 0,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,22; 24,57</t>
+          <t>-23,4; 54,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 61,83</t>
+          <t>-14,38; 84,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,56; 166,02</t>
+          <t>-21,87; 57,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-33,17; 21,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-33,41; 22,42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-11,5; 55,03</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 91,5</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 73,87</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-23,22; 19,77</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,27</t>
+          <t>-4,27; 4,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 1,05</t>
+          <t>-5,46; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 9,7</t>
+          <t>-6,01; 0,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 1,37</t>
+          <t>4,04; 13,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 1,11</t>
+          <t>-4,14; 8,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 11,44</t>
+          <t>-4,99; 1,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,65</t>
+          <t>-5,64; 1,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,06</t>
+          <t>-4,4; 2,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 8,34</t>
+          <t>-1,7; 7,98</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 5,06</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 1,76</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 0,14</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 1,31</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 9,19</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 4,74</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,95%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-29,32%</t>
+          <t>-29,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>-31,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,38%</t>
+          <t>184,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-28,14%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,36%</t>
+          <t>-22,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,0%</t>
+          <t>-29,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-28,74%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>65,32%</t>
+          <t>38,16%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-13,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-13,32%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-29,46%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-15,58%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>95,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 93,58</t>
+          <t>-51,11; 88,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,22; 24,11</t>
+          <t>-60,08; 27,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 197,5</t>
+          <t>-64,1; 19,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,91; 28,12</t>
+          <t>69,51; 407,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,1; 22,79</t>
+          <t>-31,55; 103,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 203,69</t>
+          <t>-52,61; 34,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,89; 30,85</t>
+          <t>-58,19; 27,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,51; 2,5</t>
+          <t>-44,64; 51,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 152,44</t>
+          <t>-23,17; 131,07</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-56,34; 73,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-44,86; 33,53</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-51,04; 3,87</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-43,89; 24,59</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>35,74; 190,14</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-33,27; 59,9</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>6,33</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 17,82</t>
+          <t>-1,32; 19,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 11,51</t>
+          <t>-6,35; 6,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-3,04; 27,47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 6,54</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 5,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-6,59; 5,94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,02; 6,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 8,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 8,25</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 6,05</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 9,42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 4,21</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 16,49</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>-0,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>99,81%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,87%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-3,66%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>48,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,58%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42,06%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-2,25%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>52,79%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 485,85</t>
+          <t>-28,81; 570,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,34; 373,47</t>
+          <t>-71,89; 187,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-47,88; 984,31</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-53,82; 149,7</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 119,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-60,37; 146,05</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-60,2; 137,24</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-51,37; 176,67</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-18,36; 168,02</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-38,26; 135,49</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-25,47; 187,97</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-53,2; 84,18</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-27,53; 302,24</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,51</t>
+          <t>-0,68; 3,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,03</t>
+          <t>-2,0; 1,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,77</t>
+          <t>-0,85; 4,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,05</t>
+          <t>1,94; 8,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,51</t>
+          <t>-2,59; 3,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,83</t>
+          <t>-3,93; -0,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,34</t>
+          <t>-2,8; 1,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,26</t>
+          <t>-1,12; 3,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,97</t>
+          <t>-0,71; 4,22</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 1,7</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 1,26</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 1,03</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 3,01</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 5,73</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 1,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>120,93%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-23,71%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>-25,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-7,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>18,92%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-10,39%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-4,61%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-2,59%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 82,47</t>
+          <t>-11,59; 87,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 48,93</t>
+          <t>-31,39; 41,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,6; 207,03</t>
+          <t>-15,32; 92,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 2,5</t>
+          <t>20,0; 156,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 23,77</t>
+          <t>-20,08; 38,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,87; 108,13</t>
+          <t>-45,23; -1,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 25,04</t>
+          <t>-32,14; 21,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 23,62</t>
+          <t>-13,51; 55,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,65; 126,88</t>
+          <t>-7,57; 56,75</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-31,76; 16,64</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-24,96; 23,38</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-25,48; 17,52</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-5,95; 54,21</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 85,51</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 19,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
